--- a/TBLISTA2EX2.xlsx
+++ b/TBLISTA2EX2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3ABAED-10FF-4C44-AB32-9A3AA7C0441F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9F6D55C4-F09D-47A1-A71B-59EA2F1CCDAD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -60,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +77,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,10 +231,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -246,38 +279,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -391,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -585,27 +588,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562A66C9-8B60-40F1-B033-BE3F2162161E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -621,8 +625,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14">
+      <c r="A2" s="21">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -638,8 +642,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:14">
+      <c r="A3" s="21">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -655,8 +659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:14">
+      <c r="A4" s="21">
         <v>0</v>
       </c>
       <c r="B4" s="1">
@@ -674,14 +678,14 @@
       <c r="I4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:14">
+      <c r="A5" s="21">
         <v>0</v>
       </c>
       <c r="B5" s="1">
@@ -696,13 +700,13 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="I5" s="12"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="21">
         <v>0</v>
       </c>
       <c r="B6" s="1">
@@ -717,7 +721,7 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="3">
@@ -732,13 +736,13 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="21">
         <v>0</v>
       </c>
       <c r="B7" s="1">
@@ -753,7 +757,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -763,16 +767,16 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="21">
         <v>0</v>
       </c>
       <c r="B8" s="1">
@@ -788,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="3">
@@ -800,14 +804,14 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="21">
         <v>0</v>
       </c>
       <c r="B9" s="1">
@@ -822,26 +826,26 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>1</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="21">
         <v>1</v>
       </c>
       <c r="B10" s="1">
@@ -856,19 +860,19 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14">
+      <c r="A11" s="21">
         <v>1</v>
       </c>
       <c r="B11" s="1">
@@ -883,13 +887,13 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="21">
         <v>1</v>
       </c>
       <c r="B12" s="2">
@@ -905,8 +909,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:14">
+      <c r="A13" s="21">
         <v>1</v>
       </c>
       <c r="B13" s="2">
@@ -921,15 +925,15 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="21">
         <v>1</v>
       </c>
       <c r="B14" s="2">
@@ -945,8 +949,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:14">
+      <c r="A15" s="21">
         <v>1</v>
       </c>
       <c r="B15" s="2">
@@ -962,8 +966,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:14">
+      <c r="A16" s="21">
         <v>1</v>
       </c>
       <c r="B16" s="2">
@@ -979,8 +983,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:5">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
       <c r="B17" s="2">
@@ -998,16 +1002,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="K4:L5"/>
     <mergeCell ref="I13:L13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="I10:I11"/>
     <mergeCell ref="L10:L11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
